--- a/metrics/MAPE/Infarto de Miocardio.xlsx
+++ b/metrics/MAPE/Infarto de Miocardio.xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01789549124880764</v>
+        <v>0.0176291628135555</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01811586951831082</v>
+        <v>0.01799627356226664</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0179917691060692</v>
+        <v>0.01812398076943574</v>
       </c>
     </row>
     <row r="4">
@@ -494,10 +494,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.016730021011379</v>
+        <v>0.01673585767035143</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01673619662437264</v>
+        <v>0.01640035386353771</v>
       </c>
       <c r="D4" t="n">
         <v>0.01625710461588558</v>
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05210226029899265</v>
+        <v>0.04992891901777149</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04893571687443224</v>
+        <v>0.04576116168048585</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04959946368981758</v>
+        <v>0.0484309080138258</v>
       </c>
     </row>
   </sheetData>
